--- a/packages/central-server/__tests__/importers/programs-charting-simple-sensitive-invalid.xlsx
+++ b/packages/central-server/__tests__/importers/programs-charting-simple-sensitive-invalid.xlsx
@@ -116,7 +116,7 @@
     <t>visibilityStatus</t>
   </si>
   <si>
-    <t>testchartcode0</t>
+    <t>PatientChartingDate</t>
   </si>
   <si>
     <t>DateTime</t>
@@ -487,7 +487,7 @@
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="2" t="b">
+      <c r="G7" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
